--- a/NformTester/NformTester/keywordscripts/TST1138_DataLoggingSettingsForMulti-moduleDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1138_DataLoggingSettingsForMulti-moduleDevices.xlsx
@@ -3650,9 +3650,6 @@
     <t>ClickCell</t>
   </si>
   <si>
-    <t>;Prerequisites:1) Devices should be present in the viewer.2) User should have rights 'Configure Data logging'.</t>
-  </si>
-  <si>
     <t>DoubleClickItem</t>
   </si>
   <si>
@@ -3669,14 +3666,6 @@
   </si>
   <si>
     <t>; The goal of this test is verify data logging seeting for milti module device.</t>
-  </si>
-  <si>
-    <t>10.146.83.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"UPS_10.146.83.1"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"Liebert NxL UPS"</t>
@@ -3810,6 +3799,18 @@
   </si>
   <si>
     <t>The logged data can be used in 'Read Data' action to plot the graph.</t>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Prerequisites:1) Devices should be present in the viewer.2) User should have rights 'Configure Data logging'.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4770,8 +4771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N122"/>
+    <sheetView tabSelected="1" topLeftCell="F103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4863,7 +4864,7 @@
         <v>755</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4935,7 +4936,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>805</v>
+        <v>849</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4960,7 +4961,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5008,7 +5009,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>572</v>
@@ -5021,19 +5022,19 @@
         <v>798</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>812</v>
+        <v>847</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>813</v>
+        <v>848</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>799</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="12"/>
@@ -5049,10 +5050,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F9" s="4">
         <v>10</v>
@@ -5074,7 +5075,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4"/>
@@ -5167,7 +5168,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>813</v>
+        <v>848</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5256,7 +5257,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5275,10 +5276,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
@@ -5422,7 +5423,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="4"/>
@@ -5614,10 +5615,10 @@
         <v>711</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5643,10 +5644,10 @@
         <v>711</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -5672,10 +5673,10 @@
         <v>711</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5701,10 +5702,10 @@
         <v>711</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5730,10 +5731,10 @@
         <v>711</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5759,10 +5760,10 @@
         <v>711</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5788,10 +5789,10 @@
         <v>711</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -5817,10 +5818,10 @@
         <v>711</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -5846,10 +5847,10 @@
         <v>711</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -5893,7 +5894,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -5980,7 +5981,7 @@
         <v>56</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>813</v>
+        <v>848</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -6256,7 +6257,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -6448,10 +6449,10 @@
         <v>711</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -6477,10 +6478,10 @@
         <v>711</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6506,10 +6507,10 @@
         <v>711</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -6535,10 +6536,10 @@
         <v>711</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6564,10 +6565,10 @@
         <v>711</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6593,10 +6594,10 @@
         <v>711</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -6622,10 +6623,10 @@
         <v>711</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -6651,10 +6652,10 @@
         <v>711</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6680,10 +6681,10 @@
         <v>711</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6727,7 +6728,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -6814,7 +6815,7 @@
         <v>56</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>813</v>
+        <v>848</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -7121,7 +7122,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="4"/>
@@ -7313,10 +7314,10 @@
         <v>711</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -7342,10 +7343,10 @@
         <v>711</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -7371,10 +7372,10 @@
         <v>711</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -7400,10 +7401,10 @@
         <v>711</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7429,10 +7430,10 @@
         <v>711</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -7458,10 +7459,10 @@
         <v>711</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -7487,10 +7488,10 @@
         <v>711</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7516,10 +7517,10 @@
         <v>711</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -7545,10 +7546,10 @@
         <v>711</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -7592,7 +7593,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -7679,7 +7680,7 @@
         <v>56</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>813</v>
+        <v>848</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7762,7 +7763,7 @@
         <v>3</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7779,10 +7780,10 @@
         <v>106</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F107" s="4">
         <v>2</v>
@@ -7916,7 +7917,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -7937,10 +7938,10 @@
         <v>112</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -7962,7 +7963,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7983,10 +7984,10 @@
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -8008,7 +8009,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -20952,7 +20953,7 @@
         <v>137</v>
       </c>
       <c r="AJR3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AJS3" t="s">
         <v>4</v>
@@ -28371,7 +28372,7 @@
         <v>7</v>
       </c>
       <c r="AJR6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AJS6" t="s">
         <v>7</v>
@@ -29599,17 +29600,17 @@
     </row>
     <row r="11" spans="1:1014">
       <c r="AJR11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:1014">
       <c r="AJR12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:1014">
       <c r="AJR13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -29631,17 +29632,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1138_DataLoggingSettingsForMulti-moduleDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1138_DataLoggingSettingsForMulti-moduleDevices.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7473" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7474" uniqueCount="851">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3665,9 +3665,6 @@
     <t>Tips</t>
   </si>
   <si>
-    <t>; The goal of this test is verify data logging seeting for milti module device.</t>
-  </si>
-  <si>
     <t>"Liebert NxL UPS"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3801,15 +3798,23 @@
     <t>The logged data can be used in 'Read Data' action to plot the graph.</t>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>;Prerequisites:1) Devices should be present in the viewer.2) User should have rights 'Configure Data logging'.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>; The goal of this test is verify data logging seeting for milti module device.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4769,10 +4774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4864,7 +4869,7 @@
         <v>755</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4955,13 +4960,13 @@
         <v>759</v>
       </c>
       <c r="B6" s="7">
-        <v>41106</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5002,14 +5007,14 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>846</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>572</v>
@@ -5031,29 +5036,27 @@
         <v>799</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>812</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>833</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>834</v>
       </c>
       <c r="F9" s="4">
         <v>10</v>
@@ -5069,13 +5072,17 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4"/>
@@ -5090,10 +5097,8 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5120,7 +5125,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="4">
@@ -5149,7 +5154,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="4">
@@ -5180,7 +5185,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="4">
@@ -5209,7 +5214,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="4">
@@ -5238,7 +5243,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="4">
@@ -5257,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5268,18 +5273,18 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="11" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>835</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>836</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
@@ -5297,7 +5302,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5328,11 +5333,9 @@
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5360,9 +5363,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5389,7 +5394,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="4">
@@ -5417,13 +5422,15 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15" ht="15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="4"/>
@@ -5618,7 +5625,7 @@
         <v>807</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5647,7 +5654,7 @@
         <v>807</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -5676,7 +5683,7 @@
         <v>807</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5705,7 +5712,7 @@
         <v>807</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5734,7 +5741,7 @@
         <v>807</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5763,7 +5770,7 @@
         <v>807</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5792,7 +5799,7 @@
         <v>807</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -5821,7 +5828,7 @@
         <v>807</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -5850,7 +5857,7 @@
         <v>807</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -5894,7 +5901,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -6257,7 +6264,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -6449,10 +6456,10 @@
         <v>711</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -6481,7 +6488,7 @@
         <v>808</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6510,7 +6517,7 @@
         <v>808</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -6539,7 +6546,7 @@
         <v>808</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6568,7 +6575,7 @@
         <v>808</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6597,7 +6604,7 @@
         <v>807</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -6626,7 +6633,7 @@
         <v>807</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -6655,7 +6662,7 @@
         <v>807</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6684,7 +6691,7 @@
         <v>807</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6728,7 +6735,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -7122,7 +7129,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="4"/>
@@ -7317,7 +7324,7 @@
         <v>808</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -7346,7 +7353,7 @@
         <v>808</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -7375,7 +7382,7 @@
         <v>808</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -7404,7 +7411,7 @@
         <v>808</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7433,7 +7440,7 @@
         <v>808</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -7462,7 +7469,7 @@
         <v>807</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -7491,7 +7498,7 @@
         <v>807</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7520,7 +7527,7 @@
         <v>807</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -7549,7 +7556,7 @@
         <v>807</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -7593,7 +7600,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -7763,7 +7770,7 @@
         <v>3</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7780,10 +7787,10 @@
         <v>106</v>
       </c>
       <c r="D107" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="E107" s="14" t="s">
         <v>838</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>839</v>
       </c>
       <c r="F107" s="4">
         <v>2</v>
@@ -7917,7 +7924,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -7938,10 +7945,10 @@
         <v>112</v>
       </c>
       <c r="D113" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>831</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -7963,7 +7970,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7984,10 +7991,10 @@
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>831</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -8009,7 +8016,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -8221,6 +8228,10 @@
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="O129" s="12"/>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -29632,17 +29643,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1138_DataLoggingSettingsForMulti-moduleDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1138_DataLoggingSettingsForMulti-moduleDevices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-390" yWindow="90" windowWidth="15480" windowHeight="11640"/>
@@ -3665,14 +3665,6 @@
     <t>Tips</t>
   </si>
   <si>
-    <t>"Liebert NxL UPS"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liebert protocol"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>;Check the parent datapoint.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3816,13 +3808,21 @@
   <si>
     <t>; The goal of this test is verify data logging seeting for milti module device.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3901,6 +3901,11 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4776,8 +4781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4869,7 +4874,7 @@
         <v>755</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4941,7 +4946,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4966,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5007,14 +5012,14 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>572</v>
@@ -5027,19 +5032,19 @@
         <v>798</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>799</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>811</v>
+        <v>850</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="12"/>
@@ -5053,10 +5058,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F9" s="4">
         <v>10</v>
@@ -5082,7 +5087,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4"/>
@@ -5173,7 +5178,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5262,7 +5267,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5281,10 +5286,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
@@ -5430,7 +5435,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="4"/>
@@ -5625,7 +5630,7 @@
         <v>807</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5654,7 +5659,7 @@
         <v>807</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -5683,7 +5688,7 @@
         <v>807</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5712,7 +5717,7 @@
         <v>807</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5741,7 +5746,7 @@
         <v>807</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5770,7 +5775,7 @@
         <v>807</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5799,7 +5804,7 @@
         <v>807</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -5828,7 +5833,7 @@
         <v>807</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -5857,7 +5862,7 @@
         <v>807</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -5901,7 +5906,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -5988,7 +5993,7 @@
         <v>56</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -6264,7 +6269,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -6456,10 +6461,10 @@
         <v>711</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -6488,7 +6493,7 @@
         <v>808</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6517,7 +6522,7 @@
         <v>808</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -6546,7 +6551,7 @@
         <v>808</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6575,7 +6580,7 @@
         <v>808</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6604,7 +6609,7 @@
         <v>807</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -6633,7 +6638,7 @@
         <v>807</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -6662,7 +6667,7 @@
         <v>807</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6691,7 +6696,7 @@
         <v>807</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6735,7 +6740,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -6822,7 +6827,7 @@
         <v>56</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -7129,7 +7134,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="4"/>
@@ -7324,7 +7329,7 @@
         <v>808</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -7353,7 +7358,7 @@
         <v>808</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -7382,7 +7387,7 @@
         <v>808</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -7411,7 +7416,7 @@
         <v>808</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7440,7 +7445,7 @@
         <v>808</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -7469,7 +7474,7 @@
         <v>807</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -7498,7 +7503,7 @@
         <v>807</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7527,7 +7532,7 @@
         <v>807</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -7556,7 +7561,7 @@
         <v>807</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -7600,7 +7605,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -7687,7 +7692,7 @@
         <v>56</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7770,7 +7775,7 @@
         <v>3</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7787,10 +7792,10 @@
         <v>106</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F107" s="4">
         <v>2</v>
@@ -7924,7 +7929,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -7945,10 +7950,10 @@
         <v>112</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -7970,7 +7975,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7991,10 +7996,10 @@
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -8016,7 +8021,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -29643,17 +29648,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
